--- a/REGIAO.xlsx
+++ b/REGIAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D3A239-221C-4D50-B5BA-E794884D8C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6751CE0-F261-49E2-8BE8-2494558923D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC6BB3E4-D117-4362-92E0-E6C2D9B7EBE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="339">
   <si>
     <t>A035</t>
   </si>
@@ -1044,6 +1044,15 @@
   </si>
   <si>
     <t>Região</t>
+  </si>
+  <si>
+    <t>Macaíba</t>
+  </si>
+  <si>
+    <t>Mossóro</t>
+  </si>
+  <si>
+    <t>São Gonçalo Amarante</t>
   </si>
 </sst>
 </file>
@@ -1415,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="H163" sqref="H163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,6 +3219,39 @@
         <v>13</v>
       </c>
     </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>336</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>337</v>
+      </c>
+      <c r="C164" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" t="s">
+        <v>338</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/REGIAO.xlsx
+++ b/REGIAO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6751CE0-F261-49E2-8BE8-2494558923D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66B33A-A4F9-48F8-9A62-7746DD2831BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC6BB3E4-D117-4362-92E0-E6C2D9B7EBE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="344">
   <si>
     <t>A035</t>
   </si>
@@ -1053,6 +1053,21 @@
   </si>
   <si>
     <t>São Gonçalo Amarante</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>MATRIZ</t>
+  </si>
+  <si>
+    <t>Matriz</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>A174</t>
   </si>
 </sst>
 </file>
@@ -1424,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}">
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3252,6 +3267,33 @@
         <v>13</v>
       </c>
     </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>339</v>
+      </c>
+      <c r="B166" t="s">
+        <v>341</v>
+      </c>
+      <c r="C166" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>342</v>
+      </c>
+      <c r="C167" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>343</v>
+      </c>
+      <c r="C168" t="s">
+        <v>340</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/REGIAO.xlsx
+++ b/REGIAO.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66B33A-A4F9-48F8-9A62-7746DD2831BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DC578-F1A3-42F1-9627-DC7918251799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC6BB3E4-D117-4362-92E0-E6C2D9B7EBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$168</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="347">
   <si>
     <t>A035</t>
   </si>
@@ -1068,6 +1071,15 @@
   </si>
   <si>
     <t>A174</t>
+  </si>
+  <si>
+    <t>ISPMG</t>
+  </si>
+  <si>
+    <t>A213</t>
+  </si>
+  <si>
+    <t>Marília</t>
   </si>
 </sst>
 </file>
@@ -1439,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}">
-  <dimension ref="A1:C168"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
-      <selection activeCell="H162" sqref="H162"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,7 +1483,7 @@
         <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1691,7 +1703,7 @@
         <v>194</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,7 +2011,7 @@
         <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2021,7 +2033,7 @@
         <v>224</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2065,7 +2077,7 @@
         <v>228</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,7 +2143,7 @@
         <v>234</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +3306,19 @@
         <v>340</v>
       </c>
     </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>345</v>
+      </c>
+      <c r="B169" t="s">
+        <v>346</v>
+      </c>
+      <c r="C169" t="s">
+        <v>344</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C168" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/REGIAO.xlsx
+++ b/REGIAO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6DC578-F1A3-42F1-9627-DC7918251799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2DBC94-6C7E-487C-81AA-D7CED15F893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC6BB3E4-D117-4362-92E0-E6C2D9B7EBE0}"/>
+    <workbookView xWindow="20370" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{EC6BB3E4-D117-4362-92E0-E6C2D9B7EBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$171</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="351">
   <si>
     <t>A035</t>
   </si>
@@ -1080,6 +1080,18 @@
   </si>
   <si>
     <t>Marília</t>
+  </si>
+  <si>
+    <t>A208</t>
+  </si>
+  <si>
+    <t>Arapiraca 2</t>
+  </si>
+  <si>
+    <t>A216</t>
+  </si>
+  <si>
+    <t>Guaruva</t>
   </si>
 </sst>
 </file>
@@ -1451,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3317,8 +3329,30 @@
         <v>344</v>
       </c>
     </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>347</v>
+      </c>
+      <c r="B170" t="s">
+        <v>348</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>349</v>
+      </c>
+      <c r="B171" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C168" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}"/>
+  <autoFilter ref="A1:C171" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/REGIAO.xlsx
+++ b/REGIAO.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2DBC94-6C7E-487C-81AA-D7CED15F893E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF0ACCC-4768-41A0-80EA-540D515530E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4695" windowWidth="29040" windowHeight="15840" xr2:uid="{EC6BB3E4-D117-4362-92E0-E6C2D9B7EBE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC6BB3E4-D117-4362-92E0-E6C2D9B7EBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$172</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="353">
   <si>
     <t>A035</t>
   </si>
@@ -1092,6 +1092,12 @@
   </si>
   <si>
     <t>Guaruva</t>
+  </si>
+  <si>
+    <t>A145</t>
+  </si>
+  <si>
+    <t>Penha</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3351,8 +3357,18 @@
         <v>3</v>
       </c>
     </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>351</v>
+      </c>
+      <c r="B172" t="s">
+        <v>352</v>
+      </c>
+      <c r="C172" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C171" xr:uid="{E9FB0771-B1C3-415E-8C67-66C4A42D0A99}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>